--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,49 +43,58 @@
     <t>killed</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -94,187 +103,181 @@
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,16 +725,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6712328767123288</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>0.9230769230769231</v>
@@ -851,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6388888888888888</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.64</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -1101,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4736842105263158</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.7872340425531915</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3783783783783784</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,7 +1204,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1219,31 +1222,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>80</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.7450980392156863</v>
-      </c>
-      <c r="L13">
-        <v>38</v>
-      </c>
-      <c r="M13">
-        <v>38</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2945736434108527</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C14">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7407407407407407</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,37 +1304,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2857142857142857</v>
+        <v>0.28</v>
       </c>
       <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>54</v>
       </c>
-      <c r="D15">
-        <v>54</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>135</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7333333333333333</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7323943661971831</v>
+        <v>0.74</v>
       </c>
       <c r="L16">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2080536912751678</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1818181818181818</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1388888888888889</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.04557640750670242</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7075471698113207</v>
+        <v>0.6875</v>
       </c>
       <c r="L20">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,115 +1604,187 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004310344827586207</v>
+        <v>0.1875</v>
       </c>
       <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.130952380952381</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>219</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>14</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.04301075268817205</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0.06</v>
+      </c>
+      <c r="F23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>356</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.004129606099110546</v>
+      </c>
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>104</v>
-      </c>
-      <c r="E21">
-        <v>0.88</v>
-      </c>
-      <c r="F21">
-        <v>0.12</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>3003</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.6625</v>
-      </c>
-      <c r="L21">
-        <v>106</v>
-      </c>
-      <c r="M21">
-        <v>106</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.6382978723404256</v>
-      </c>
-      <c r="L22">
-        <v>60</v>
-      </c>
-      <c r="M22">
-        <v>60</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.625</v>
-      </c>
-      <c r="L23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="D24">
+        <v>66</v>
+      </c>
+      <c r="E24">
+        <v>0.8</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3135</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6109660574412533</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,21 +1796,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>149</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.5925925925925926</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1747,21 +1822,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,21 +1848,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5056179775280899</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,21 +1874,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,21 +1900,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,21 +1926,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.4931506849315068</v>
+        <v>0.488135593220339</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.4923076923076923</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.488135593220339</v>
+        <v>0.475</v>
       </c>
       <c r="L32">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>151</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.4794117647058824</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L33">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>177</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.4761904761904762</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1981,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.4651162790697674</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2007,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.4516129032258064</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2033,21 +2108,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.4184100418410042</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L37">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2059,21 +2134,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.4117647058823529</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2085,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>20</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2116,16 +2191,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.3939393939393939</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2137,15 +2212,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.35</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L41">
         <v>14</v>
@@ -2163,47 +2238,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.3428571428571429</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.282051282051282</v>
+        <v>0.203125</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2215,15 +2290,15 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.265625</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L44">
         <v>17</v>
@@ -2241,21 +2316,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.2638888888888889</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2267,21 +2342,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>53</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.1102362204724409</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2293,47 +2368,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.1007194244604317</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.09923664122137404</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2345,21 +2420,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>118</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.09375</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L49">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2371,21 +2446,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>377</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.0755813953488372</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2397,99 +2472,99 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>159</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.07441860465116279</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="L51">
         <v>16</v>
       </c>
       <c r="M51">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>199</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.06823266219239374</v>
+        <v>0.04791344667697063</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>833</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.06163328197226502</v>
+        <v>0.04404873477038426</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>609</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.06086956521739131</v>
+        <v>0.0411522633744856</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2501,47 +2576,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>216</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.05327413984461709</v>
+        <v>0.03781979977753059</v>
       </c>
       <c r="L55">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.05194805194805195</v>
+        <v>0.03690888119953864</v>
       </c>
       <c r="L56">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2553,163 +2628,111 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>292</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.03930635838150289</v>
+        <v>0.02711426726920594</v>
       </c>
       <c r="L57">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="M57">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>831</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.03658536585365853</v>
+        <v>0.01966873706004141</v>
       </c>
       <c r="L58">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="N58">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O58">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2054</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K59">
-        <v>0.02941176470588235</v>
+        <v>0.01662484316185696</v>
       </c>
       <c r="L59">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="M59">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="N59">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="O59">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>3003</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K60">
-        <v>0.02880658436213992</v>
+        <v>0.0146551724137931</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K61">
-        <v>0.02481902792140641</v>
-      </c>
-      <c r="L61">
-        <v>24</v>
-      </c>
-      <c r="M61">
-        <v>25</v>
-      </c>
-      <c r="N61">
-        <v>0.96</v>
-      </c>
-      <c r="O61">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K62">
-        <v>0.01849529780564263</v>
-      </c>
-      <c r="L62">
-        <v>59</v>
-      </c>
-      <c r="M62">
-        <v>70</v>
-      </c>
-      <c r="N62">
-        <v>0.84</v>
-      </c>
-      <c r="O62">
-        <v>0.16</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>3131</v>
+        <v>1143</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
@@ -73,103 +73,118 @@
     <t>die</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
   </si>
   <si>
     <t>healthy</t>
@@ -178,49 +193,58 @@
     <t>hand</t>
   </si>
   <si>
-    <t>well</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>available</t>
@@ -229,46 +253,52 @@
     <t>increased</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>home</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>workers</t>
   </si>
   <si>
     <t>san</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -635,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,16 +855,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.660958904109589</v>
+        <v>0.6404109589041096</v>
       </c>
       <c r="C7">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D7">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6538461538461539</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5862068965517241</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -1104,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4358974358974359</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7605633802816901</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,16 +1255,16 @@
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7547169811320755</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3137254901960784</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.28</v>
+        <v>0.2984496124031008</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>362</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7416666666666667</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2674418604651163</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C16">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.74</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
         <v>37</v>
@@ -1396,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,7 +1434,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2545454545454545</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -1422,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7254901960784313</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2337662337662338</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2281879194630873</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2222222222222222</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1875</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.130952380952381</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1734,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.04301075268817205</v>
+        <v>0.05898123324396783</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,37 +1784,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004129606099110546</v>
+        <v>0.007349338559529643</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3135</v>
+        <v>2026</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6296296296296297</v>
+        <v>0.68125</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,21 +1826,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.004787743376954996</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>83</v>
+      </c>
+      <c r="E25">
+        <v>0.82</v>
+      </c>
+      <c r="F25">
+        <v>0.18</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3118</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.6083550913838121</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L25">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1822,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1848,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1874,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5294117647058824</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1900,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.4943820224719101</v>
+        <v>0.5639686684073107</v>
       </c>
       <c r="L29">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="M29">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1926,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.488135593220339</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1952,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>151</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.4852941176470588</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L31">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1978,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>175</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.475</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2004,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4743589743589743</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2030,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4666666666666667</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2056,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4657534246575342</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2082,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4615384615384616</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2108,21 +2162,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.4186046511627907</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2134,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.4100418410041841</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L38">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2160,21 +2214,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>141</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.3571428571428572</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2186,21 +2240,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.3285714285714286</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2212,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.2372881355932203</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2238,47 +2292,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.2253521126760563</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.203125</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2290,21 +2344,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.1338582677165354</v>
+        <v>0.3807531380753138</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2316,21 +2370,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>110</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.09569377990430622</v>
+        <v>0.34375</v>
       </c>
       <c r="L45">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2342,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>378</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.09433962264150944</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2368,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.0889423076923077</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2394,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>379</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.07441860465116279</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2420,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>199</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.06046511627906977</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2446,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>202</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.06040268456375839</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L50">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2472,99 +2526,99 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>840</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.049079754601227</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>310</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.04791344667697063</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>616</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.04404873477038426</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L53">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2040</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.0411522633744856</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2576,145 +2630,145 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>466</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.03781979977753059</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>865</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.03690888119953864</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>835</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.02711426726920594</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L57">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="N57">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3014</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.01966873706004141</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N58">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>947</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.01662484316185696</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L59">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="M59">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="N59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>3135</v>
+        <v>833</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.0146551724137931</v>
+        <v>0.06390977443609022</v>
       </c>
       <c r="L60">
         <v>17</v>
@@ -2732,7 +2786,267 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1143</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K61">
+        <v>0.06228373702422145</v>
+      </c>
+      <c r="L61">
+        <v>54</v>
+      </c>
+      <c r="M61">
+        <v>54</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62">
+        <v>0.06182380216383308</v>
+      </c>
+      <c r="L62">
+        <v>40</v>
+      </c>
+      <c r="M62">
+        <v>43</v>
+      </c>
+      <c r="N62">
+        <v>0.93</v>
+      </c>
+      <c r="O62">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>51</v>
+      </c>
+      <c r="N63">
+        <v>0.98</v>
+      </c>
+      <c r="O63">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64">
+        <v>0.04793233082706767</v>
+      </c>
+      <c r="L64">
+        <v>102</v>
+      </c>
+      <c r="M64">
+        <v>117</v>
+      </c>
+      <c r="N64">
+        <v>0.87</v>
+      </c>
+      <c r="O64">
+        <v>0.13</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65">
+        <v>0.04697986577181208</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>0.88</v>
+      </c>
+      <c r="O65">
+        <v>0.12</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66">
+        <v>0.04536082474226804</v>
+      </c>
+      <c r="L66">
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <v>23</v>
+      </c>
+      <c r="N66">
+        <v>0.96</v>
+      </c>
+      <c r="O66">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K67">
+        <v>0.03132063287051986</v>
+      </c>
+      <c r="L67">
+        <v>97</v>
+      </c>
+      <c r="M67">
+        <v>107</v>
+      </c>
+      <c r="N67">
+        <v>0.91</v>
+      </c>
+      <c r="O67">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K68">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L68">
+        <v>27</v>
+      </c>
+      <c r="M68">
+        <v>30</v>
+      </c>
+      <c r="N68">
+        <v>0.9</v>
+      </c>
+      <c r="O68">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K69">
+        <v>0.0216076058772688</v>
+      </c>
+      <c r="L69">
+        <v>25</v>
+      </c>
+      <c r="M69">
+        <v>29</v>
+      </c>
+      <c r="N69">
+        <v>0.86</v>
+      </c>
+      <c r="O69">
+        <v>0.14</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>0.02134337727558067</v>
+      </c>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>83</v>
+      </c>
+      <c r="N70">
+        <v>0.82</v>
+      </c>
+      <c r="O70">
+        <v>0.18</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
